--- a/data/raw/spetses_school_codebook.xlsx
+++ b/data/raw/spetses_school_codebook.xlsx
@@ -1175,6 +1175,424 @@
 </worksheet>
 </file>
 
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045C41757E45BA74E8B0A30E2C95298E7" ma:contentTypeVersion="27" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="5c3912b040cd266749d2d9bd87e0ee4b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="28349b29-79b2-45aa-b36e-fb891b3ccb4b" xmlns:ns3="e36f48cb-a69d-424f-965f-90680a634d4c" xmlns:ns4="d2c93e69-2a94-4828-91f8-356e1218f977" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="148a95ca08c07953d446f38436003735" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="28349b29-79b2-45aa-b36e-fb891b3ccb4b"/>
+    <xsd:import namespace="e36f48cb-a69d-424f-965f-90680a634d4c"/>
+    <xsd:import namespace="d2c93e69-2a94-4828-91f8-356e1218f977"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:Bewaartermijn" minOccurs="0"/>
+                <xsd:element ref="ns2:Procestypenaam" minOccurs="0"/>
+                <xsd:element ref="ns2:Resultaat" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns4:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceBillingMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:Status" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="28349b29-79b2-45aa-b36e-fb891b3ccb4b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Bewaartermijn" ma:index="8" nillable="true" ma:displayName="Bewaartermijn" ma:default="2 jaar" ma:format="RadioButtons" ma:internalName="Bewaartermijn">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="2 jaar"/>
+          <xsd:enumeration value="5 jaar"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Procestypenaam" ma:index="9" nillable="true" ma:displayName="Procestypenaam" ma:internalName="Procestypenaam">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="1. Instellen en inrichten organisatie"/>
+          <xsd:enumeration value="2. Beleid en regelgeving opstellen"/>
+          <xsd:enumeration value="3. Plannen opstellen"/>
+          <xsd:enumeration value="4. Evaluatie uitvoeren"/>
+          <xsd:enumeration value="5. Producten en diensten leveren"/>
+          <xsd:enumeration value="6. Verzoeken behandelen"/>
+          <xsd:enumeration value="7. Aangiften behandelen"/>
+          <xsd:enumeration value="8. Voorzieningen verstrekken"/>
+          <xsd:enumeration value="9. Status toekennen"/>
+          <xsd:enumeration value="10. Heffen"/>
+          <xsd:enumeration value="11. Toestemming verlenen"/>
+          <xsd:enumeration value="12. Toezien en handhaven"/>
+          <xsd:enumeration value="13. Geschillen behandelen"/>
+          <xsd:enumeration value="14. Openbare ruimte inrichten"/>
+          <xsd:enumeration value="15. Onderhouden en repareren"/>
+          <xsd:enumeration value="16. Overeenkomsten aangaan"/>
+          <xsd:enumeration value="17. Personenen aanstellen"/>
+          <xsd:enumeration value="18. Betalen en innen"/>
+          <xsd:enumeration value="19. Secretariaat voeren en gegevens administreren/verwerken"/>
+          <xsd:enumeration value="20. Informeren"/>
+          <xsd:enumeration value="21. Adviseren"/>
+          <xsd:enumeration value="22. Gebeurtenis organiseren"/>
+          <xsd:enumeration value="23. Voorziening aanvragen"/>
+          <xsd:enumeration value="24. Toestemming vragen"/>
+          <xsd:enumeration value="25. Toezicht en handhaving ondergaan"/>
+          <xsd:enumeration value="26. Betwisten"/>
+          <xsd:enumeration value="27. Status aanvragen"/>
+          <xsd:enumeration value="28. Product of dienst aanvragen"/>
+          <xsd:enumeration value="29. Aangifte doen"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Resultaat" ma:index="10" nillable="true" ma:displayName="Resultaat" ma:internalName="Resultaat">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Aangegaan"/>
+          <xsd:enumeration value="Aangesteld"/>
+          <xsd:enumeration value="Afgebroken"/>
+          <xsd:enumeration value="Afgehandeld"/>
+          <xsd:enumeration value="Afgewezen"/>
+          <xsd:enumeration value="Beëindigd"/>
+          <xsd:enumeration value="Betaald"/>
+          <xsd:enumeration value="Geïnd"/>
+          <xsd:enumeration value="Geleverd"/>
+          <xsd:enumeration value="Geweigerd"/>
+          <xsd:enumeration value="Gewijzigd"/>
+          <xsd:enumeration value="Uitgevoerd"/>
+          <xsd:enumeration value="Ingericht"/>
+          <xsd:enumeration value="Ingesteld"/>
+          <xsd:enumeration value="Ingetrokken"/>
+          <xsd:enumeration value="Ingewilligd"/>
+          <xsd:enumeration value="Niet aangesteld"/>
+          <xsd:enumeration value="Niet betaald"/>
+          <xsd:enumeration value="Niet doorgegaan"/>
+          <xsd:enumeration value="Niet geïnd"/>
+          <xsd:enumeration value="Niet geleverd"/>
+          <xsd:enumeration value="Niet gewijzigd"/>
+          <xsd:enumeration value="Niet opgelegd"/>
+          <xsd:enumeration value="Niet toegekend"/>
+          <xsd:enumeration value="Niet uitgevoerd"/>
+          <xsd:enumeration value="Niet vastgesteld"/>
+          <xsd:enumeration value="Niet verkregen"/>
+          <xsd:enumeration value="Niet verstrekt"/>
+          <xsd:enumeration value="Niet verwerkt"/>
+          <xsd:enumeration value="Opgeheven"/>
+          <xsd:enumeration value="Opgelegd"/>
+          <xsd:enumeration value="Toegekend"/>
+          <xsd:enumeration value="Uitgevoerd"/>
+          <xsd:enumeration value="Vastgesteld"/>
+          <xsd:enumeration value="Verkregen"/>
+          <xsd:enumeration value="Verleend"/>
+          <xsd:enumeration value="Verstrekt"/>
+          <xsd:enumeration value="Verwerkt"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e36f48cb-a69d-424f-965f-90680a634d4c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{81ed36b6-db46-4c49-a12a-c9222fe17571}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e36f48cb-a69d-424f-965f-90680a634d4c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="29" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2c93e69-2a94-4828-91f8-356e1218f977" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b86d5498-23a0-42a0-876b-b3c9112a049c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="26" nillable="true" ma:displayName="Afmeldingsstatus" ma:internalName="Afmeldingsstatus">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="28" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="30" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Status" ma:index="31" nillable="true" ma:displayName="Status" ma:description="Experiment Documentbeheer&#10;Geeft aan in hoeverre een document recentelijk op actualiteit is beoordeeld." ma:format="Dropdown" ma:internalName="Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="✅ Actueel"/>
+          <xsd:enumeration value="🔄 Herziening nodig"/>
+          <xsd:enumeration value="❌ Verouderd"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="b86d5498-23a0-42a0-876b-b3c9112a049c" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="d2c93e69-2a94-4828-91f8-356e1218f977" xsi:nil="true"/>
+    <Resultaat xmlns="28349b29-79b2-45aa-b36e-fb891b3ccb4b" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="d2c93e69-2a94-4828-91f8-356e1218f977" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d2c93e69-2a94-4828-91f8-356e1218f977">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Procestypenaam xmlns="28349b29-79b2-45aa-b36e-fb891b3ccb4b" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e36f48cb-a69d-424f-965f-90680a634d4c" xsi:nil="true"/>
+    <Bewaartermijn xmlns="28349b29-79b2-45aa-b36e-fb891b3ccb4b">2 jaar</Bewaartermijn>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B82DE82F-AD90-452F-814B-AD6A82BC0F00}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAEAEF72-BA16-4C7E-B065-B253F332D912}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{738FCA78-EBD4-46F9-B0DD-764C1C8C6F8B}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6E79EE-93F5-489B-A794-89F6F61571A5}"/>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{5d6aa37e-3a89-4bd8-9367-95b8219209ae}" enabled="1" method="Standard" siteId="{6ad73702-409c-4046-ae59-cc4bea334507}" removed="0"/>
